--- a/SWOT_sample1.xlsx
+++ b/SWOT_sample1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patescalona/Projects/Coding/SPSS-Python/python-pptx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63BC1F56-B60B-BD4F-AE01-1A9A231E73EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96472215-7396-2B49-8DB1-7C461EF8DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{727DF170-23F9-8F47-803E-F315DF19B50D}"/>
+    <workbookView xWindow="64000" yWindow="18240" windowWidth="32000" windowHeight="17760" activeTab="1" xr2:uid="{727DF170-23F9-8F47-803E-F315DF19B50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>items</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>Wouldn't give up coffee</t>
+  </si>
+  <si>
+    <t>Survey duration</t>
+  </si>
+  <si>
+    <t>SMASH!!!</t>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC513CF6-05E8-FD4E-807C-E8B9FD892C20}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -502,4 +509,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB736ED-8673-F645-B867-965F8C81A049}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>